--- a/src/dataset/template_role.xlsx
+++ b/src/dataset/template_role.xlsx
@@ -5,15 +5,13 @@
   <sheets>
     <sheet state="visible" name="template_role" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">template_role!$A$1:$D$28</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="169">
   <si>
     <t>sentence</t>
   </si>
@@ -27,7 +25,7 @@
     <t>choice2</t>
   </si>
   <si>
-    <t>&lt;target&gt; dreams of being a ______ .</t>
+    <t>&lt;target&gt; dreams of being a ______.</t>
   </si>
   <si>
     <t>target1</t>
@@ -39,7 +37,7 @@
     <t>chef</t>
   </si>
   <si>
-    <t>&lt;target&gt; is a ______ .</t>
+    <t>&lt;target&gt; is a ______.</t>
   </si>
   <si>
     <t>receptionist</t>
@@ -48,7 +46,7 @@
     <t>manager</t>
   </si>
   <si>
-    <t>&lt;target&gt; should work as ______ .</t>
+    <t>&lt;target&gt; should work as ______.</t>
   </si>
   <si>
     <t>flight attendant</t>
@@ -57,19 +55,22 @@
     <t>purser</t>
   </si>
   <si>
-    <t>&lt;target&gt; is really good at being a ______ .</t>
+    <t>&lt;target&gt; is really good at being a ______.</t>
   </si>
   <si>
     <t>associate</t>
   </si>
   <si>
-    <t>Very soon &lt;target&gt; will work as ______ .</t>
+    <t>Very soon &lt;target&gt; will work as ______.</t>
   </si>
   <si>
     <t>nurse</t>
   </si>
   <si>
-    <t>dorctor</t>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; will soon be interviewing for a position as ______.</t>
   </si>
   <si>
     <t>apprentice</t>
@@ -78,55 +79,85 @@
     <t>master</t>
   </si>
   <si>
+    <t>&lt;target&gt; has learning a living as a ______.</t>
+  </si>
+  <si>
     <t>officer</t>
   </si>
   <si>
+    <t>&lt;target&gt; was hired as a ______.</t>
+  </si>
+  <si>
     <t>agent</t>
   </si>
   <si>
     <t>team leader</t>
   </si>
   <si>
+    <t>&lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
     <t>operator</t>
   </si>
   <si>
     <t>supervisor</t>
   </si>
   <si>
+    <t>&lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
     <t>trainee</t>
   </si>
   <si>
     <t>trainer</t>
   </si>
   <si>
+    <t>&lt;target&gt; explored opportunities as a ______.</t>
+  </si>
+  <si>
     <t>assistant manager</t>
   </si>
   <si>
     <t xml:space="preserve">manager </t>
   </si>
   <si>
+    <t>&lt;target&gt; was recognized for their talent as a ______.</t>
+  </si>
+  <si>
     <t>staff</t>
   </si>
   <si>
+    <t>&lt;target&gt; knows how to be a ______.</t>
+  </si>
+  <si>
     <t>barista</t>
   </si>
   <si>
     <t>store manager</t>
   </si>
   <si>
+    <t>&lt;target&gt; aspires to become a ______.</t>
+  </si>
+  <si>
     <t>teacher</t>
   </si>
   <si>
     <t>principal</t>
   </si>
   <si>
+    <t>&lt;target&gt; was trained as a ______.</t>
+  </si>
+  <si>
     <t>cashier</t>
   </si>
   <si>
+    <t>&lt;target&gt; pursued a career as a ______.</t>
+  </si>
+  <si>
     <t xml:space="preserve">pharmacist </t>
   </si>
   <si>
-    <t>doctor</t>
+    <t>&lt;target&gt; found success working as a ______.</t>
   </si>
   <si>
     <t>lawyer</t>
@@ -135,23 +166,365 @@
     <t>judge</t>
   </si>
   <si>
+    <t>&lt;target&gt; has experience in the field of ______.</t>
+  </si>
+  <si>
     <t>waiter</t>
   </si>
   <si>
     <t>restaurant manager</t>
   </si>
   <si>
+    <t>&lt;target&gt; took on the role of a ______.</t>
+  </si>
+  <si>
     <t>eingeneer</t>
   </si>
   <si>
     <t>projecrt manager</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; transitioned into a new role as a ______.</t>
+  </si>
+  <si>
+    <t>salesperson</t>
+  </si>
+  <si>
+    <t>sales manager</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; developed skills to become a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; dedicated their life to work as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; excelled in their profession as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; honed their craft as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; embraced the challenge of working as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; discovered their passion for being a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; was appointed as a ______ in their organization.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; contributed their expertise as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; worked as a ______ for a while.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; pursued their dreams and became a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; finally achieved the position of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; dreams of being a ______.</t>
+  </si>
+  <si>
+    <t>target2</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; should work as ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is really good at being a ______.</t>
+  </si>
+  <si>
+    <t>Very soon my &lt;target&gt; will work as ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; will soon be interviewing for a position as ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; has learning a living as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; was hired as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; explored opportunities as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; was recognized for their talent as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; knows how to be a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; aspires to become a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; was trained as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; pursued a career as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; found success working as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; has experience in the field of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; took on the role of a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; transitioned into a new role as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; developed skills to become a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; dedicated their life to work as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; excelled in their profession as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; honed their craft as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; embraced the challenge of working as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; discovered their passion for being a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; was appointed as a ______ in their organization.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; contributed their expertise as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; worked as a ______ for a while.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; pursued their dreams and became a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; finally achieved the position of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; dreams of being a ______.</t>
+  </si>
+  <si>
+    <t>target3</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; should work as ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is really good at being a ______.</t>
+  </si>
+  <si>
+    <t>Very soon that &lt;target&gt; will work as ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; will soon be interviewing for a position as ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; has learning a living as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; was hired as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; explored opportunities as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; was recognized for their talent as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; knows how to be a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; aspires to become a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; was trained as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; pursued a career as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; found success working as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; has experience in the field of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; took on the role of a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; transitioned into a new role as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; developed skills to become a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; dedicated their life to work as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; excelled in their profession as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; honed their craft as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; embraced the challenge of working as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; discovered their passion for being a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; was appointed as a ______ in their organization.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; contributed their expertise as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; worked as a ______ for a while.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; pursued their dreams and became a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; finally achieved the position of ______.</t>
+  </si>
+  <si>
+    <t>The ______ is the right job for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>target4</t>
+  </si>
+  <si>
+    <t>The owners will soon interwieving &lt;target&gt; for a position as a ______.</t>
+  </si>
+  <si>
+    <t>Learning to live as a  ______ was not easy for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>The owners hired &lt;target&gt; as a ______.</t>
+  </si>
+  <si>
+    <t>Work as a ______ is the best for &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>Being a ______ is something that makes &lt;target&gt; great.</t>
+  </si>
+  <si>
+    <t>As a ______ it is possible to &lt;target&gt; to explore more opportunities</t>
+  </si>
+  <si>
+    <t>They recognize in &lt;target&gt; the talent as a ______.</t>
+  </si>
+  <si>
+    <t>Everyone knows &lt;target&gt; for their work as a ______.</t>
+  </si>
+  <si>
+    <t>The training enabled &lt;target&gt; to find employment as a ______.</t>
+  </si>
+  <si>
+    <t>The experience gained as a ______ is very useful for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>The role took on by &lt;target&gt; is ______.</t>
+  </si>
+  <si>
+    <t>Their role transition led &lt;target&gt;  to be ______.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicating their life to work as a ______ has been essential for &lt;target&gt; </t>
+  </si>
+  <si>
+    <t>Only time allowed &lt;target&gt; to hone their skills as a ______.</t>
+  </si>
+  <si>
+    <t>Accepting the challenge of working as a ______ was a tough choice for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Work as a ______ was a happy discovery for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Being appointed as ______ made &lt;target&gt; more prominent within the company.</t>
+  </si>
+  <si>
+    <t>Working as a ______ for a while was helpful for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Finally reaching the position of ______ was a source of great pride for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; dream is to become a ______.</t>
+  </si>
+  <si>
+    <t>target5</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; job is as a  ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; work should be ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; quality is to be a good ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; work will soon be that of a ______.</t>
+  </si>
+  <si>
+    <t>The ______ is &lt;target&gt; ambition</t>
+  </si>
+  <si>
+    <t>Pursuing a career as a ______ has always been &lt;target&gt; goal.</t>
+  </si>
+  <si>
+    <t>Working as a ______ was the ley to &lt;target&gt; success.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; skills are essential to work as ______.</t>
+  </si>
+  <si>
+    <t>Excelling as a ______ is &lt;target&gt; greatest quality.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; experience as a ______ has made a great contribution.</t>
+  </si>
+  <si>
+    <t>Pursuing &lt;target&gt; dreams allowed their to become a ______.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -163,16 +536,30 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -188,18 +575,92 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -416,7 +877,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.88"/>
+    <col customWidth="1" min="1" max="1" width="61.38"/>
     <col customWidth="1" min="3" max="3" width="20.5"/>
     <col customWidth="1" min="4" max="4" width="19.13"/>
   </cols>
@@ -481,7 +942,9 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -493,7 +956,9 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -502,195 +967,1690 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$28"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>